--- a/data/supplementary_data/SupplementaryDataset5.xlsx
+++ b/data/supplementary_data/SupplementaryDataset5.xlsx
@@ -21,14 +21,14 @@
       <rPr>
         <b val="true"/>
       </rPr>
-      <t xml:space="preserve">Supplementary Dataset 5.</t>
+      <t xml:space="preserve">Supplementary Dataset S5.</t>
     </r>
     <r>
       <t xml:space="preserve"> Enrichment of insulator and silencer constructs with eight different enhancers.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Selected insulators and insulator fragments were cloned in between (insulator construct) or upstream of (silencer construct) an enhancer and a 35S minimal promoter driving the expression of a barcoded GFP reporter gene. Eight different enhancers were used to build these constructs. All constructs were pooled andsubjected to Plant STARR-seq in tobacco leaves (tobacco) or maize protoplasts (maize). Reporter mRNA enrichment was normalized to a control construct without an enhancer or insulator (noEnh; log2 set to 0).</t>
+    <t xml:space="preserve">Selected insulators and insulator fragments were cloned in between (insulator construct) or upstream of (silencer construct) an enhancer and a 35S minimal promoter driving the expression of a barcoded GFP reporter gene. Eight different enhancers were used to build these constructs. All constructs were pooled andsubjected to Plant STARR-seq in N. benthamiana leaves (tobacco) or maize protoplasts (maize). Reporter mRNA enrichment was normalized to a control construct without an enhancer or insulator (noEnh; log2 set to 0).</t>
   </si>
   <si>
     <t xml:space="preserve">construct</t>
